--- a/data/trans_camb/P12A-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 8,94</t>
+          <t>-5,1; 9,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 10,27</t>
+          <t>-7,92; 6,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 11,9</t>
+          <t>-5,76; 8,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,8</t>
+          <t>-7,13; 4,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 7,7</t>
+          <t>-6,84; 5,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,07</t>
+          <t>-1,36; 13,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 4,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 3,96</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 9,52</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>-7,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>-14,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>49,08%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-8,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32,52%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 84,89</t>
+          <t>-33,59; 121,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 95,11</t>
+          <t>-52,25; 80,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 135,1</t>
+          <t>-41,56; 108,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 35,92</t>
+          <t>-54,82; 55,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 72,83</t>
+          <t>-51,2; 67,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 47,2</t>
+          <t>-14,86; 183,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 55,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-41,85; 46,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-13,43; 110,61</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 6,47</t>
+          <t>-7,63; 12,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 5,53</t>
+          <t>-10,04; 9,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 4,41</t>
+          <t>-6,66; 13,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,59</t>
+          <t>-13,72; 2,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,62</t>
+          <t>-13,0; 3,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 4,5</t>
+          <t>-11,72; 6,32</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 4,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 3,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 6,8</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,97%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-4,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>-32,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-22,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>-10,82%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-10,09%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-13,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 60,66</t>
+          <t>-32,02; 94,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,05; 48,66</t>
+          <t>-43,01; 72,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 30,47</t>
+          <t>-28,64; 97,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 52,59</t>
+          <t>-58,58; 19,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 17,43</t>
+          <t>-58,53; 24,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 32,36</t>
+          <t>-50,8; 45,11</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-38,09; 28,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-39,88; 25,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; 43,64</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>23,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,82</t>
+          <t>29,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>29,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,34</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,93</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 33,14</t>
+          <t>-0,84; 61,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 37,15</t>
+          <t>2,96; 68,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 10,23</t>
+          <t>1,34; 68,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 9,29</t>
+          <t>-2,27; 17,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 17,29</t>
+          <t>-5,1; 8,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 21,66</t>
+          <t>-1,09; 20,6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 40,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 41,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 45,21</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>262,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>110,87%</t>
+          <t>324,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>324,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>225,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>323,24%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>251,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>281,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>332,38%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 503,98</t>
+          <t>-44,83; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 534,77</t>
+          <t>-19,12; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 334,21</t>
+          <t>-35,7; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,82; 283,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 272,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 319,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,63; 1872,71</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 2040,42</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 2119,62</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,34</t>
+          <t>-1,65; 11,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,94</t>
+          <t>-3,79; 10,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,97</t>
+          <t>-0,93; 13,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,43</t>
+          <t>-7,52; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,3</t>
+          <t>-6,85; 2,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,0</t>
+          <t>-2,31; 7,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,21</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 4,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 9,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>-20,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 59,03</t>
+          <t>-11,55; 103,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 64,94</t>
+          <t>-24,54; 89,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 50,06</t>
+          <t>-5,97; 121,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 30,8</t>
+          <t>-47,38; 13,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 33,43</t>
+          <t>-43,0; 22,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 32,67</t>
+          <t>-16,21; 73,23</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 43,02</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 42,94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 72,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
